--- a/REKAP ABSEN DAN TOTAL GAJI.xlsx
+++ b/REKAP ABSEN DAN TOTAL GAJI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EXCEL PROJEK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAA78DD-7B12-4680-870E-B37BC8DF701D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA5FB1C-49F8-4B1E-8DBB-451B7A1D6176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{7BAAE2EC-2F3A-43CC-911D-A09103AA0B8D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>FORM INPUT ABSENSI</t>
   </si>
@@ -304,53 +304,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -364,52 +325,51 @@
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -447,66 +407,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -832,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7761F7-BD8F-4AE8-BB1C-33F5360E0BA9}">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,154 +744,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5" t="s">
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>4</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>5</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>6</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>7</v>
       </c>
-      <c r="J3" s="6">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
         <v>2</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <v>3</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <v>4</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="4">
         <v>5</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="4">
         <v>6</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="4">
         <v>7</v>
       </c>
-      <c r="Q3" s="6">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6">
+      <c r="Q3" s="4">
+        <v>1</v>
+      </c>
+      <c r="R3" s="4">
         <v>2</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="4">
         <v>3</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="4">
         <v>4</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="4">
         <v>5</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="4">
         <v>6</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="4">
         <v>7</v>
       </c>
-      <c r="X3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="6">
+      <c r="X3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="4">
         <v>2</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Z3" s="4">
         <v>3</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AA3" s="4">
         <v>4</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="4">
         <v>5</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3" s="4">
         <v>6</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="4">
         <v>7</v>
       </c>
     </row>
@@ -1037,7 +937,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f>A4+1</f>
+        <f t="shared" ref="A5:A13" si="0">A4+1</f>
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1078,7 +978,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1092,7 +992,9 @@
         <v>7</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1117,7 +1019,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1160,7 +1062,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1199,7 +1101,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1240,7 +1142,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1281,7 +1183,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1295,7 +1197,9 @@
       <c r="H11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1320,7 +1224,7 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1359,7 +1263,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1399,65 +1303,65 @@
       <c r="AD13" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
       <c r="J19" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="8">
         <v>100000</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="20" t="s">
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="8">
         <v>20000</v>
       </c>
     </row>
@@ -1468,322 +1372,331 @@
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6">
         <f>COUNTIF($C4:$AD4,C$20)</f>
         <v>2</v>
       </c>
-      <c r="D21" s="9">
-        <f t="shared" ref="D21:F21" si="0">COUNTIF($C4:$AD4,D$20)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="22">
+      <c r="D21" s="6">
+        <f t="shared" ref="D21:F21" si="1">COUNTIF($C4:$AD4,D$20)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
         <f>C21*$K$19+D21*$K$20+E21*$K$21+F21*$K$22</f>
         <v>200000</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="11"/>
       <c r="J21" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="8">
         <v>40000</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f>A21+1</f>
+        <f t="shared" ref="A22:A30" si="2">A21+1</f>
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="9">
-        <f t="shared" ref="C22:F30" si="1">COUNTIF($C5:$AD5,C$20)</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G22" s="22">
-        <f t="shared" ref="G22:G30" si="2">C22*$K$19+D22*$K$20+E22*$K$21+F22*$K$22</f>
+      <c r="C22" s="6">
+        <f t="shared" ref="C22:F30" si="3">COUNTIF($C5:$AD5,C$20)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" ref="G22:G30" si="4">C22*$K$19+D22*$K$20+E22*$K$21+F22*$K$22</f>
         <v>100000</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11"/>
       <c r="J22" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f>A22+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E23" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="22">
-        <f t="shared" si="2"/>
-        <v>20000</v>
-      </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
+      <c r="C23" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f>A23+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D24" s="9">
-        <f t="shared" si="1"/>
+      <c r="C24" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="22">
-        <f t="shared" si="2"/>
+      <c r="E24" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="4"/>
         <v>140000</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f>A24+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="22">
-        <f t="shared" si="2"/>
+      <c r="C25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="4"/>
         <v>40000</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f>A25+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D26" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G26" s="22">
-        <f t="shared" si="2"/>
+      <c r="C26" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f>A26+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F27" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G27" s="22">
-        <f t="shared" si="2"/>
+      <c r="C27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="4"/>
         <v>40000</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f>A27+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E28" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="22">
-        <f t="shared" si="2"/>
-        <v>20000</v>
-      </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
+      <c r="C28" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f>A28+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F29" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="22">
-        <f t="shared" si="2"/>
+      <c r="C29" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="4"/>
         <v>40000</v>
       </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f>A29+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E30" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="22">
-        <f t="shared" si="2"/>
+      <c r="C30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="X2:AD2"/>
+    <mergeCell ref="G19:I20"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="J2:P2"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="G29:I29"/>
@@ -1796,30 +1709,21 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="X2:AD2"/>
-    <mergeCell ref="G19:I20"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:AD13">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Hadir">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Hadir">
       <formula>NOT(ISERROR(SEARCH("Hadir",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Izin">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Izin">
       <formula>NOT(ISERROR(SEARCH("Izin",C4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Sakit">
       <formula>NOT(ISERROR(SEARCH("Sakit",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Absen">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Absen">
       <formula>NOT(ISERROR(SEARCH("Absen",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Hadir">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Hadir">
       <formula>NOT(ISERROR(SEARCH("Hadir",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
